--- a/testausdokumentti - tuotantoversio.xlsx
+++ b/testausdokumentti - tuotantoversio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Projektit\EndlessRunner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9FF3D-FD95-4FFB-BEE1-8016DC0CB81C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DFE3521-61E8-43FD-8F5C-19B6BE99FBC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="40">
   <si>
     <t>Ohjelmiston tuotantoversion testausdokumentti</t>
   </si>
@@ -78,24 +78,12 @@
     <t>Jasper</t>
   </si>
   <si>
-    <t>Pilvien toimivuutta</t>
-  </si>
-  <si>
-    <t>Että pilvien animaatio toimii</t>
-  </si>
-  <si>
-    <t>Pilvien animaatio toimii normaalisti</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
     <t>Unity</t>
   </si>
   <si>
-    <t>Pilvillä on nyt uudet animaatiot</t>
-  </si>
-  <si>
     <t>1.0.5</t>
   </si>
   <si>
@@ -135,52 +123,28 @@
     <t>1.0.7</t>
   </si>
   <si>
-    <t>Uudistettua pelaajahahmoa</t>
-  </si>
-  <si>
-    <t>Pelaaja ja sen animaatiot toimivat normaalisti</t>
-  </si>
-  <si>
-    <t>Pelaaja toimii odotusten mukaisesti</t>
-  </si>
-  <si>
-    <t>Uusi pelaajahahmo on nyt lisätty peliin</t>
-  </si>
-  <si>
-    <t>Testi 5</t>
-  </si>
-  <si>
-    <t>1.0.8</t>
-  </si>
-  <si>
-    <t>Peliin lisättyjä ääniä</t>
-  </si>
-  <si>
-    <t>Hyppy ja osuma-äänet toistuvat oikeaan aikaan</t>
-  </si>
-  <si>
-    <t>Äänet lisättiin peliin onnistuneesti</t>
-  </si>
-  <si>
-    <t>Äänet toimivat moitteettomasti</t>
-  </si>
-  <si>
-    <t>Testi 6</t>
-  </si>
-  <si>
-    <t>1.0.9</t>
-  </si>
-  <si>
-    <t>Boksien tekstuureita ja niiden istuvuutta</t>
-  </si>
-  <si>
-    <t>Boksien tekstuurit toimivat normaalisti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boksien tekstuurit toimivat  </t>
-  </si>
-  <si>
-    <t>Lisättiin bokseille uusi ulkonäkö onnistuneesti</t>
+    <t>Että pilvien animaatio ja ennätykset toimii</t>
+  </si>
+  <si>
+    <t>Pilvien ja ennätysten toimivuutta</t>
+  </si>
+  <si>
+    <t>Pilvien animaatio ja ennätysjärjestelmä toimii normaalisti</t>
+  </si>
+  <si>
+    <t>Pilvillä on nyt uudet animaatiot ja ennätykset tallentuvat laitteelle</t>
+  </si>
+  <si>
+    <t>Uudistettua pelaajahahmoa ja tuplahypyn toimivuutta</t>
+  </si>
+  <si>
+    <t>Pelaaja ja tuplahyppy toimivat normaalisti</t>
+  </si>
+  <si>
+    <t>Pelaaja ja tuplahyppy toimii odotusten mukaisesti</t>
+  </si>
+  <si>
+    <t>Uusi pelaajahahmo on nyt lisätty peliin ja sillä on tuplahyppy ominaisuus</t>
   </si>
 </sst>
 </file>
@@ -670,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +698,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,7 +722,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -766,7 +730,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -774,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +752,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +816,7 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +824,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +870,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +886,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +902,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,12 +910,12 @@
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B44" s="4"/>
     </row>
@@ -960,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,7 +980,7 @@
         <v>14</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1024,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1033,178 +997,6 @@
       </c>
       <c r="B54" s="3" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="6">
-        <v>44083</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="6">
-        <v>44090</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
